--- a/6) Апрель/914/914 Системное программирование_апрель.xlsx
+++ b/6) Апрель/914/914 Системное программирование_апрель.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\6) Апрель\914\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD396A-DACA-49DC-B0CA-5738734EEDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF0E845-1303-4140-999B-617CB386AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1515" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>ФИО</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Лекция 11</t>
+  </si>
+  <si>
+    <t>Лекция 12</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +823,9 @@
       <c r="I26" t="s">
         <v>31</v>
       </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
